--- a/Pack n Pet Appendix Financials.xlsx
+++ b/Pack n Pet Appendix Financials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KINGSTON\Class Resources\Example Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twodegrees1-my.sharepoint.com/personal/rahul_kotian_slalom_com/Documents/Documents/Personal/UTD/Fall - 23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3C844F2-B58D-4B37-BD6E-B056F96D0390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{F3C844F2-B58D-4B37-BD6E-B056F96D0390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94D833CE-7206-4F40-A47E-0631BA1699BC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B484AC64-5681-4F67-AB9F-929646790744}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{B484AC64-5681-4F67-AB9F-929646790744}"/>
   </bookViews>
   <sheets>
     <sheet name="Assumptions" sheetId="11" r:id="rId1"/>
@@ -49,19 +49,10 @@
   <commentList>
     <comment ref="B27" authorId="0" shapeId="0" xr:uid="{6CA8C677-C114-4A57-8834-6CE5A5122D7C}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Website launches in August, don't need to pay for maintenance until it is launched</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -76,19 +67,10 @@
   <commentList>
     <comment ref="B27" authorId="0" shapeId="0" xr:uid="{8DF46481-B8E0-4DE4-9558-8EED45F28C99}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Website launches in August, don't need to pay for maintenance until it is launched</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -96,14 +78,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -118,48 +100,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="230">
-  <si>
-    <t>Months</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="219">
   <si>
     <t>Friends/Family Rounds</t>
   </si>
   <si>
-    <t>Seed  Funding</t>
-  </si>
-  <si>
-    <t>Incorporate Business</t>
-  </si>
-  <si>
     <t>Website Development</t>
   </si>
   <si>
-    <t>Supplier Relations</t>
-  </si>
-  <si>
-    <t>Website Launch</t>
-  </si>
-  <si>
-    <t>Distribution Partnerships</t>
-  </si>
-  <si>
     <t>Series A Funding</t>
-  </si>
-  <si>
-    <t>Push to Retail</t>
-  </si>
-  <si>
-    <t>Start Acquisitions Analysis</t>
-  </si>
-  <si>
-    <t>Evaluate IPO</t>
   </si>
   <si>
     <t>Starting Data</t>
@@ -1134,7 +1083,7 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1194,45 +1143,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Timeline!$A$3:$A$13</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Friends/Family Rounds</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Seed  Funding</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Incorporate Business</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Website Development</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Supplier Relations</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Website Launch</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Distribution Partnerships</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Series A Funding</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Push to Retail</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Start Acquisitions Analysis</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Evaluate IPO</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1240,39 +1157,6 @@
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>44927</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44927</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45015</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45107</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45137</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45153</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45292</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45412</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45503</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45658</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1304,39 +1188,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>180</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6099,132 +5950,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247E684C-D065-4465-9EF2-B2D97BB0A707}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="60" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="41" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="41" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="41" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="41" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="44" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -6237,251 +6088,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573F281C-B0B3-4836-B32D-B9F4989F5450}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="61"/>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>44927</v>
-      </c>
-      <c r="C3" s="2">
-        <v>44985</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D9" si="0">C3-B3</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>44927</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45015</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>45015</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45046</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>44927</v>
-      </c>
-      <c r="L5" s="1">
-        <v>45503</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>45015</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45137</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>122</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>45107</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45168</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>45137</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45168</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2">
-        <v>45153</v>
-      </c>
-      <c r="C9" s="2">
-        <v>45290</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>137</v>
-      </c>
-      <c r="H9">
-        <v>7</v>
-      </c>
-      <c r="I9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2">
-        <v>45292</v>
-      </c>
-      <c r="C10" s="2">
-        <v>45412</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ref="D10:D12" si="1">C10-B10</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2">
-        <v>45412</v>
-      </c>
-      <c r="C11" s="2">
-        <v>45503</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="H11">
-        <v>12</v>
-      </c>
-      <c r="I11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2">
-        <v>45503</v>
-      </c>
-      <c r="C12" s="2">
-        <v>45595</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="H12">
-        <v>18</v>
-      </c>
-      <c r="I12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2">
-        <v>45658</v>
-      </c>
-      <c r="C13" s="2">
-        <v>45838</v>
-      </c>
-      <c r="D13">
-        <f>C13-B13</f>
-        <v>180</v>
-      </c>
-      <c r="H13">
-        <v>16</v>
-      </c>
-      <c r="I13">
-        <v>18</v>
-      </c>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6501,223 +6173,223 @@
       <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="15.26953125" customWidth="1"/>
+    <col min="8" max="8" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="15.26953125" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3">
         <v>69000000</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F3" s="5">
         <v>0.91</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F7" s="7">
         <f>$F$2*$F$3</f>
         <v>62790000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F8" s="8">
         <f>F7*50%</f>
         <v>31395000</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F9" s="8">
         <f>F8*30%</f>
         <v>9418500</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F10" s="8"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F13" s="13">
         <v>46</v>
       </c>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F14" s="13">
         <v>19.989999999999998</v>
       </c>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="58" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F15" s="13">
         <v>42.95</v>
       </c>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F16" s="15">
         <v>119.99</v>
       </c>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F17" s="14">
         <f>AVERAGE(F13:F16)</f>
         <v>57.232500000000002</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F19" s="14">
         <f>F17-(40%*F17)</f>
         <v>34.339500000000001</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13">
         <v>48.21</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F22" s="11">
         <v>150000</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B24" s="61" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C24" s="61"/>
       <c r="D24" s="61"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B26" s="11">
         <v>-60000</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B27" s="11">
         <f>-SUM($I$58:$M$58)</f>
@@ -6731,26 +6403,26 @@
         <v>-12000</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B28" s="11">
         <v>-300</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B29" s="7">
         <v>50000</v>
@@ -6765,12 +6437,12 @@
       </c>
       <c r="E29" s="8"/>
       <c r="G29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B30" s="11">
         <f>-B29*$F$20</f>
@@ -6786,22 +6458,22 @@
       </c>
       <c r="F30" s="18"/>
       <c r="G30" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I30" s="19">
         <f>120000/F9</f>
         <v>1.2740882306099698E-2</v>
       </c>
       <c r="J30" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M30" s="5">
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B31" s="11">
         <f>(-500000/12)*11</f>
@@ -6816,12 +6488,12 @@
         <v>-551250</v>
       </c>
       <c r="G31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B32" s="20">
         <f>-$F$22*6</f>
@@ -6836,9 +6508,9 @@
         <v>-900000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B33" s="11">
         <f>SUM(B26:B32)-B29</f>
@@ -6853,67 +6525,67 @@
         <v>-7841433</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B35" s="13">
         <f>$F$20+7</f>
         <v>55.21</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B36" s="13">
         <v>75</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B38" s="61" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="61"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B40" s="11">
         <v>-60000</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B41" s="11">
         <f>-SUM($I$58:$M$58)</f>
@@ -6928,23 +6600,23 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B42" s="11">
         <v>-300</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B43" s="7">
         <v>50000</v>
@@ -6958,9 +6630,9 @@
         <v>132300</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B44" s="11">
         <f>-B43*$F$20</f>
@@ -6975,9 +6647,9 @@
         <v>-6378183</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B45" s="11">
         <f t="shared" ref="B45:D46" si="0">B31</f>
@@ -6992,9 +6664,9 @@
         <v>-551250</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B46" s="20">
         <f t="shared" si="0"/>
@@ -7009,9 +6681,9 @@
         <v>-900000</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B47" s="11">
         <f>SUM(B40:B46)-B43</f>
@@ -7026,9 +6698,9 @@
         <v>-7841433</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B48" s="22">
         <f>B43*$B$36</f>
@@ -7043,9 +6715,9 @@
         <v>9922500</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B49" s="27">
         <f>B48+B47</f>
@@ -7060,12 +6732,12 @@
         <v>2081067</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C50" s="23">
         <f t="shared" ref="C50:D50" si="2">C49*$E$50</f>
@@ -7079,12 +6751,12 @@
         <v>0.21</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B51" s="28">
         <f>SUM(B68:M68)</f>
@@ -7099,18 +6771,18 @@
         <v>1644042.93</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A54" s="62" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B54" s="62"/>
       <c r="C54" s="62"/>
       <c r="D54" s="62"/>
     </row>
-    <row r="55" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
       <c r="B55" s="63" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C55" s="63"/>
       <c r="D55" s="63"/>
@@ -7124,48 +6796,48 @@
       <c r="L55" s="63"/>
       <c r="M55" s="63"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M56" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M56" s="30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B57" s="22">
         <v>0</v>
@@ -7206,9 +6878,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B58" s="22">
         <v>0</v>
@@ -7258,9 +6930,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B59" s="11">
         <f>B42</f>
@@ -7300,9 +6972,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B60" s="22">
         <v>0</v>
@@ -7345,9 +7017,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B61" s="22">
         <v>0</v>
@@ -7391,9 +7063,9 @@
         <v>-552100</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B62" s="22">
         <v>0</v>
@@ -7443,9 +7115,9 @@
         <v>-41666.666666666664</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B63" s="11">
         <f>$B$46/12</f>
@@ -7496,9 +7168,9 @@
         <v>-75000</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B64" s="11">
         <f>SUM(B57:B63)</f>
@@ -7549,9 +7221,9 @@
         <v>-667766.66666666663</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B65" s="22">
         <v>0</v>
@@ -7595,9 +7267,9 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B66" s="11">
         <f>SUM(B64)</f>
@@ -7648,9 +7320,9 @@
         <v>82233.333333333372</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B67" s="22">
         <v>0</v>
@@ -7694,9 +7366,9 @@
         <v>17269.000000000007</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B68" s="11">
         <f>B66</f>
@@ -7747,51 +7419,51 @@
         <v>64964.333333333365</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B70" s="63" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C70" s="63"/>
       <c r="D70" s="63"/>
       <c r="E70" s="63"/>
       <c r="F70" s="1"/>
       <c r="I70" s="63" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J70" s="63"/>
       <c r="K70" s="63"/>
       <c r="L70" s="63"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B71" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L71" s="30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B72" s="11">
         <f>C41/4</f>
@@ -7810,7 +7482,7 @@
         <v>-3000</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I72" s="11">
         <f>D41/4</f>
@@ -7829,9 +7501,9 @@
         <v>-3000</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B73" s="8">
         <f>$C$43/4</f>
@@ -7850,7 +7522,7 @@
         <v>31500</v>
       </c>
       <c r="H73" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I73" s="8">
         <f>D43/4</f>
@@ -7869,9 +7541,9 @@
         <v>33075</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B74" s="29">
         <f>C44/4</f>
@@ -7890,7 +7562,7 @@
         <v>-1518615</v>
       </c>
       <c r="H74" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I74" s="29">
         <f>$D$44/4</f>
@@ -7909,9 +7581,9 @@
         <v>-1594545.75</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B75" s="11">
         <f>$C$45/4</f>
@@ -7930,7 +7602,7 @@
         <v>-131250</v>
       </c>
       <c r="H75" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I75" s="11">
         <f>$C$45/4</f>
@@ -7949,9 +7621,9 @@
         <v>-131250</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B76" s="11">
         <f>$C$46/4</f>
@@ -7970,7 +7642,7 @@
         <v>-225000</v>
       </c>
       <c r="H76" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I76" s="11">
         <f>$C$46/4</f>
@@ -7989,9 +7661,9 @@
         <v>-225000</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B77" s="11">
         <f>SUM(B72:B76)-B73</f>
@@ -8010,7 +7682,7 @@
         <v>-1877865</v>
       </c>
       <c r="H77" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I77" s="11">
         <f>SUM(I72:I76)-I73</f>
@@ -8029,9 +7701,9 @@
         <v>-1953795.75</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B78" s="23">
         <f>$C$48/4</f>
@@ -8050,7 +7722,7 @@
         <v>2362500</v>
       </c>
       <c r="H78" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I78" s="23">
         <f>$D$48/4</f>
@@ -8069,9 +7741,9 @@
         <v>2480625</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B79" s="13">
         <f>B77+B78</f>
@@ -8090,7 +7762,7 @@
         <v>484635</v>
       </c>
       <c r="H79" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="I79" s="13">
         <f>I77+I78</f>
@@ -8109,9 +7781,9 @@
         <v>526829.25</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B80" s="13">
         <f>B79*$E$50</f>
@@ -8130,7 +7802,7 @@
         <v>101773.34999999999</v>
       </c>
       <c r="H80" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="I80" s="13">
         <f>I79*$E$50</f>
@@ -8149,9 +7821,9 @@
         <v>110634.1425</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B81" s="13">
         <f>B79-B80</f>
@@ -8170,7 +7842,7 @@
         <v>382861.65</v>
       </c>
       <c r="H81" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I81" s="13">
         <f>I79-I80</f>
@@ -8189,54 +7861,54 @@
         <v>416195.10749999998</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F82" s="11"/>
     </row>
-    <row r="84" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A84" s="62" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B84" s="62"/>
       <c r="C84" s="62"/>
       <c r="D84" s="62"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C86" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D86" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="41" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D87" s="11">
         <f>B26</f>
         <v>-60000</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="41" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B88" s="11">
         <f>B27</f>
@@ -8247,27 +7919,27 @@
         <v>-416.66666666666669</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="41" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D89" s="11">
         <f>B28</f>
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="41" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B90" s="11">
         <f>B31</f>
@@ -8278,12 +7950,12 @@
         <v>-38194.444444444445</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="41" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B91" s="11">
         <f>B32</f>
@@ -8294,12 +7966,12 @@
         <v>-75000</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="42" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B92">
         <f>SUM(B87:B91)</f>
@@ -8318,51 +7990,51 @@
         <v>-1537244.4444444443</v>
       </c>
       <c r="F92" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="44" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B94" s="13">
         <f>$B$35</f>
         <v>55.21</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B95" s="15">
         <f>$B$36</f>
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B96" s="14">
         <f>B95-B94</f>
         <v>19.79</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B99" s="6">
         <f>-E92/B96</f>
         <v>77677.839537364547</v>
       </c>
       <c r="C99" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -8399,224 +8071,224 @@
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="15.26953125" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3">
         <v>69000000</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F3" s="5">
         <v>0.91</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F7" s="7">
         <f>$F$2*$F$3</f>
         <v>62790000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F8" s="8">
         <f>F7*50%</f>
         <v>31395000</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F9" s="8">
         <f>F8*30%</f>
         <v>9418500</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F10" s="8"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F13" s="13">
         <v>46</v>
       </c>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F14" s="13">
         <v>19.989999999999998</v>
       </c>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="58" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F15" s="13">
         <v>42.95</v>
       </c>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F16" s="15">
         <v>119.99</v>
       </c>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F17" s="14">
         <f>AVERAGE(F13:F16)</f>
         <v>57.232500000000002</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F19" s="14">
         <f>F17-(40%*F17)</f>
         <v>34.339500000000001</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13">
         <v>48.21</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F22" s="11">
         <v>150000</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B24" s="61" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C24" s="61"/>
       <c r="D24" s="61"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B26" s="11">
         <v>-60000</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B27" s="11">
         <f>'Pro Forma Income Statement'!B27</f>
@@ -8631,23 +8303,23 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B28" s="11">
         <v>-300</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B29" s="7">
         <v>50000</v>
@@ -8661,9 +8333,9 @@
         <v>132300</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B30" s="11">
         <f>-B29*$F$20</f>
@@ -8679,15 +8351,15 @@
       </c>
       <c r="F30" s="18"/>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M30" s="5">
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B31" s="11">
         <f>'Pro Forma Income Statement'!B31</f>
@@ -8702,19 +8374,19 @@
         <v>-551250</v>
       </c>
       <c r="G31" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I31" s="19">
         <f>120000/F9</f>
         <v>1.2740882306099698E-2</v>
       </c>
       <c r="J31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B32" s="20">
         <f>-$F$22*6</f>
@@ -8729,9 +8401,9 @@
         <v>-900000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B33" s="11">
         <f>SUM(B26:B32)-B29</f>
@@ -8746,65 +8418,65 @@
         <v>-7841433</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B35" s="13">
         <f>'Pro Forma Income Statement'!$B$35</f>
         <v>55.21</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B36" s="13">
         <f>'Pro Forma Income Statement'!$B$36</f>
         <v>75</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B38" s="61" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="61"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B40" s="11">
         <v>-60000</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B41" s="11">
         <f>B27</f>
@@ -8819,23 +8491,23 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B42" s="11">
         <v>-300</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B43" s="7">
         <v>50000</v>
@@ -8849,9 +8521,9 @@
         <v>132300</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B44" s="11">
         <f>-B43*$F$20</f>
@@ -8866,9 +8538,9 @@
         <v>-6378183</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B45" s="11">
         <f>B31</f>
@@ -8883,9 +8555,9 @@
         <v>-551250</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B46" s="20">
         <f>'Pro Forma Income Statement'!B46</f>
@@ -8900,9 +8572,9 @@
         <v>-900000</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B47" s="11">
         <f>SUM(B40:B46)-B43</f>
@@ -8917,9 +8589,9 @@
         <v>-7841433</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B48" s="22">
         <f>B43*$B$36</f>
@@ -8934,9 +8606,9 @@
         <v>9922500</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B49" s="27">
         <f>B48+B47</f>
@@ -8951,12 +8623,12 @@
         <v>2081067</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C50" s="23">
         <f t="shared" ref="C50:D50" si="1">C49*$E$50</f>
@@ -8970,12 +8642,12 @@
         <v>0.21</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B51" s="28">
         <f>SUM(B68:M68)</f>
@@ -8990,18 +8662,18 @@
         <v>1644042.93</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A54" s="62" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B54" s="62"/>
       <c r="C54" s="62"/>
       <c r="D54" s="62"/>
     </row>
-    <row r="55" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
       <c r="B55" s="63" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C55" s="63"/>
       <c r="D55" s="63"/>
@@ -9015,48 +8687,48 @@
       <c r="L55" s="63"/>
       <c r="M55" s="63"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M56" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M56" s="30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B57" s="23">
         <f>'Pro Forma Income Statement'!B57</f>
@@ -9107,9 +8779,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B58" s="23">
         <f>'Pro Forma Income Statement'!B58</f>
@@ -9160,54 +8832,54 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B59" s="11">
         <f>B42</f>
         <v>-300</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M59" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I60" s="24">
         <v>10000</v>
@@ -9229,30 +8901,30 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I61" s="13">
         <f>-I60*$B$35</f>
@@ -9275,9 +8947,9 @@
         <v>-552100</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B62" s="23">
         <f>'Pro Forma Income Statement'!B62</f>
@@ -9328,9 +9000,9 @@
         <v>-41666.666666666664</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B63" s="11">
         <f>$B$46/12</f>
@@ -9381,9 +9053,9 @@
         <v>-75000</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B64" s="11">
         <f>SUM(B57:B63)</f>
@@ -9434,9 +9106,9 @@
         <v>-667766.66666666663</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B65" s="47">
         <v>0</v>
@@ -9480,9 +9152,9 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B66" s="11">
         <f>SUM(B64)</f>
@@ -9533,30 +9205,30 @@
         <v>82233.333333333372</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I67" s="17">
         <f>I66*$E$50</f>
@@ -9579,9 +9251,9 @@
         <v>17269.000000000007</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B68" s="11">
         <f>B66</f>
@@ -9632,9 +9304,9 @@
         <v>64964.333333333365</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B69" s="11">
         <f>B68</f>
@@ -9685,9 +9357,9 @@
         <v>-510478.33333333302</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B71" s="63" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C71" s="63"/>
       <c r="D71" s="63"/>
@@ -9701,48 +9373,48 @@
       <c r="L71" s="63"/>
       <c r="M71" s="63"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M72" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M72" s="30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B73" s="11">
         <f>C27/12</f>
@@ -9793,9 +9465,9 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B74" s="8">
         <f>C29/12</f>
@@ -9846,9 +9518,9 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B75" s="13">
         <f>-B74*$B$35</f>
@@ -9899,9 +9571,9 @@
         <v>-579705</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B76" s="11">
         <f>D45/12</f>
@@ -9952,9 +9624,9 @@
         <v>-45937.5</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B77" s="11">
         <f>D46/12</f>
@@ -10005,9 +9677,9 @@
         <v>-75000</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B78" s="11">
         <f>SUM(B73:B77)-B74</f>
@@ -10058,9 +9730,9 @@
         <v>-701642.5</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B79" s="22">
         <f>B74*$B$36</f>
@@ -10111,9 +9783,9 @@
         <v>787500</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B80" s="13">
         <f>B78+B79</f>
@@ -10164,9 +9836,9 @@
         <v>85857.5</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B81" s="13">
         <f>B80*$E$50</f>
@@ -10217,9 +9889,9 @@
         <v>18030.075000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B82" s="13">
         <f>B80-B81</f>
@@ -10270,9 +9942,9 @@
         <v>67827.425000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="9" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B83" s="13">
         <f>M69+B82</f>
@@ -10323,9 +9995,9 @@
         <v>303450.7666666669</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B86" s="63" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C86" s="63"/>
       <c r="D86" s="63"/>
@@ -10339,48 +10011,48 @@
       <c r="L86" s="63"/>
       <c r="M86" s="63"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M87" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M87" s="30" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B88" s="11">
         <f>D27/12</f>
@@ -10431,9 +10103,9 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B89" s="8">
         <f>D43/12</f>
@@ -10484,9 +10156,9 @@
         <v>11025</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B90" s="13">
         <f>-B89*$B$35</f>
@@ -10537,9 +10209,9 @@
         <v>-608690.25</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B91" s="11">
         <f>D45/12</f>
@@ -10590,9 +10262,9 @@
         <v>-45937.5</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B92" s="11">
         <f>D46/12</f>
@@ -10643,9 +10315,9 @@
         <v>-75000</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B93" s="11">
         <f>SUM(B88:B92)-B89</f>
@@ -10696,9 +10368,9 @@
         <v>-730627.75</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B94" s="22">
         <f>B89*$B$36</f>
@@ -10749,9 +10421,9 @@
         <v>826875</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B95" s="13">
         <f>B93+B94</f>
@@ -10802,9 +10474,9 @@
         <v>96247.25</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B96" s="13">
         <f>B95*$E$50</f>
@@ -10855,9 +10527,9 @@
         <v>20211.922500000001</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B97" s="13">
         <f>B95-B96</f>
@@ -10908,9 +10580,9 @@
         <v>76035.327499999999</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B98" s="13">
         <f>M83+B97</f>
@@ -10961,51 +10633,51 @@
         <v>1215874.6966666668</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A107" s="62" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B107" s="62"/>
       <c r="C107" s="62"/>
       <c r="D107" s="62"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="12" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B109" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C109" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D109" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="41" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D110" s="11">
         <f>B26</f>
         <v>-60000</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="41" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B111" s="11">
         <f>B27</f>
@@ -11016,27 +10688,27 @@
         <v>-416.66666666666669</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="41" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D112" s="11">
         <f>B28</f>
         <v>-300</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="41" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B113" s="11">
         <f>B31</f>
@@ -11047,12 +10719,12 @@
         <v>-38194.444444444445</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="41" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B114" s="11">
         <f>B32</f>
@@ -11063,12 +10735,12 @@
         <v>-75000</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="42" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B115">
         <f>SUM(B110:B114)</f>
@@ -11087,51 +10759,51 @@
         <v>-1537244.4444444443</v>
       </c>
       <c r="F115" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="44" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B117" s="13">
         <f>$B$35</f>
         <v>55.21</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B118" s="15">
         <f>$B$36</f>
         <v>75</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B119" s="14">
         <f>B118-B117</f>
         <v>19.79</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B122" s="7">
         <f>-E115/B119</f>
         <v>77677.839537364547</v>
       </c>
       <c r="C122" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -11167,19 +10839,19 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" s="49">
         <v>2023</v>
       </c>
@@ -11190,14 +10862,14 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B4" s="11">
         <f>'Pro Forma Income Statement'!B26</f>
@@ -11211,9 +10883,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B5" s="11">
         <f>'Pro Forma Income Statement'!B28</f>
@@ -11227,14 +10899,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="41" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B7" s="11">
         <f>'Pro Forma Income Statement'!B27</f>
@@ -11249,9 +10921,9 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="41" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B8" s="11">
         <f>'Pro Forma Income Statement'!B30</f>
@@ -11266,9 +10938,9 @@
         <v>-6378183</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B9" s="11">
         <f>'Pro Forma Income Statement'!B31</f>
@@ -11283,9 +10955,9 @@
         <v>-551250</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="41" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B10" s="11">
         <f>'Pro Forma Income Statement'!B32</f>
@@ -11300,9 +10972,9 @@
         <v>-900000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="50" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B11" s="64">
         <f>SUM(B4:D10)</f>
@@ -11327,57 +10999,57 @@
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B3" s="11">
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" s="11">
         <v>45000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B5" s="11">
         <v>600000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B6" s="11">
         <v>1000000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="50" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B9" s="18" cm="1">
         <f t="array" ref="B9:D9">SUM('Start-Up Budget'!B10:D10)/('Start-Up Budget'!B11:D11-SUM('Start-Up Budget'!B8:D8))</f>
@@ -11390,9 +11062,9 @@
         <v>-0.18165740583939749</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="41" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B10" s="18" cm="1">
         <f t="array" ref="B10:D10">SUM('Start-Up Budget'!B9:D9)/('Start-Up Budget'!B11:D11-SUM('Start-Up Budget'!B8:D8))</f>
@@ -11405,9 +11077,9 @@
         <v>-0.10324756569544767</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="41" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B11" s="18" cm="1">
         <f t="array" ref="B11:D11">SUM('Start-Up Budget'!B4,'Start-Up Budget'!B5,'Start-Up Budget'!B7:D7)/('Start-Up Budget'!B11:D11-SUM('Start-Up Budget'!B8:D8))</f>
@@ -11421,11 +11093,11 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="41"/>
       <c r="B12" s="52"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="52"/>
     </row>
   </sheetData>
@@ -11442,230 +11114,230 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" customWidth="1"/>
+    <col min="7" max="7" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="15.26953125" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3">
         <v>69000000</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F3" s="5">
         <v>0.91</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F7" s="7">
         <f>$F$2*$F$3</f>
         <v>62790000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F8" s="8">
         <f>F7*50%</f>
         <v>31395000</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F9" s="8">
         <f>F8*30%</f>
         <v>9418500</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F10" s="8"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F13" s="13">
         <v>46</v>
       </c>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F14" s="13">
         <v>19.989999999999998</v>
       </c>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="58" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F15" s="13">
         <v>42.95</v>
       </c>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F16" s="15">
         <v>119.99</v>
       </c>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F17" s="14">
         <f>AVERAGE(F13:F16)</f>
         <v>57.232500000000002</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F19" s="14">
         <f>F17-(40%*F17)</f>
         <v>34.339500000000001</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13">
         <v>48.21</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F22" s="11">
         <v>150000</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B24" s="61" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C24" s="61"/>
       <c r="D24" s="61"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B26" s="11">
         <v>-60000</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B27" s="11">
         <f>'Pro Forma Income Statement'!B27</f>
@@ -11680,23 +11352,23 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B28" s="11">
         <v>-300</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B29" s="7">
         <v>50000</v>
@@ -11710,9 +11382,9 @@
         <v>132300</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B30" s="11">
         <f>-B29*$F$20</f>
@@ -11728,15 +11400,15 @@
       </c>
       <c r="F30" s="18"/>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M30" s="5">
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B31" s="11">
         <f>'Pro Forma Income Statement'!B31</f>
@@ -11751,19 +11423,19 @@
         <v>-551250</v>
       </c>
       <c r="G31" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I31" s="19">
         <f>120000/F9</f>
         <v>1.2740882306099698E-2</v>
       </c>
       <c r="J31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B32" s="20">
         <f>-$F$22*6</f>
@@ -11778,9 +11450,9 @@
         <v>-900000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B33" s="11">
         <f>SUM(B26:B32)-B29</f>
@@ -11795,79 +11467,79 @@
         <v>-7841433</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B35" s="13">
         <f>'Pro Forma Income Statement'!$B$35</f>
         <v>55.21</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B36" s="13">
         <f>'Pro Forma Income Statement'!$B$36</f>
         <v>75</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B38" s="61" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="61"/>
       <c r="E38" s="61"/>
       <c r="F38" s="61"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B40" s="11">
         <v>-60000</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B41" s="11">
         <f>B27</f>
@@ -11890,29 +11562,29 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B42" s="11">
         <v>-300</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B43" s="7">
         <v>50000</v>
@@ -11934,9 +11606,9 @@
         <v>145860.75</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B44" s="11">
         <f>-B43*$F$20</f>
@@ -11959,9 +11631,9 @@
         <v>-7031946.7575000003</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B45" s="11">
         <f>B31</f>
@@ -11984,9 +11656,9 @@
         <v>-607753.125</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B46" s="20">
         <f>'Pro Forma Income Statement'!B46</f>
@@ -12009,9 +11681,9 @@
         <v>-900000</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B47" s="11">
         <f>SUM(B40:B46)-B43</f>
@@ -12034,9 +11706,9 @@
         <v>-8551699.8825000003</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B48" s="22">
         <f>B43*$B$36</f>
@@ -12059,9 +11731,9 @@
         <v>10939556.25</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B49" s="27">
         <f>B48+B47</f>
@@ -12084,12 +11756,12 @@
         <v>2387856.3674999997</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C50" s="23">
         <f>C49*$I$50</f>
@@ -12111,12 +11783,12 @@
         <v>0.21</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B51" s="28">
         <f>SUM(B67:M67)</f>
@@ -12139,10 +11811,10 @@
         <v>1886406.5303249997</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
       <c r="B54" s="63" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C54" s="63"/>
       <c r="D54" s="63"/>
@@ -12156,48 +11828,48 @@
       <c r="L54" s="63"/>
       <c r="M54" s="63"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M55" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M55" s="30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B56" s="23">
         <f>'Pro Forma Income Statement'!B57</f>
@@ -12248,9 +11920,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B57" s="23">
         <f>'Pro Forma Income Statement'!B58</f>
@@ -12301,54 +11973,54 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B58" s="11">
         <f>B42</f>
         <v>-300</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M58" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I59" s="24">
         <v>10000</v>
@@ -12370,30 +12042,30 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I60" s="13">
         <f>-I59*$B$35</f>
@@ -12416,9 +12088,9 @@
         <v>-552100</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B61" s="23">
         <f>'Pro Forma Income Statement'!B62</f>
@@ -12469,9 +12141,9 @@
         <v>-41666.666666666664</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B62" s="11">
         <f>$B$46/12</f>
@@ -12522,9 +12194,9 @@
         <v>-75000</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B63" s="11">
         <f>SUM(B56:B62)</f>
@@ -12575,9 +12247,9 @@
         <v>-667766.66666666663</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B64" s="47">
         <v>0</v>
@@ -12621,9 +12293,9 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B65" s="11">
         <f>SUM(B63)</f>
@@ -12674,30 +12346,30 @@
         <v>82233.333333333372</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I66" s="17">
         <f>I65*$I$50</f>
@@ -12720,9 +12392,9 @@
         <v>17269.000000000007</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B67" s="11">
         <f>B65</f>
@@ -12773,9 +12445,9 @@
         <v>64964.333333333365</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B68" s="11">
         <f>B67</f>
@@ -12826,9 +12498,9 @@
         <v>-510478.33333333302</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B70" s="63" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C70" s="63"/>
       <c r="D70" s="63"/>
@@ -12842,48 +12514,48 @@
       <c r="L70" s="63"/>
       <c r="M70" s="63"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M71" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M71" s="30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B72" s="11">
         <f>C27/12</f>
@@ -12934,9 +12606,9 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B73" s="8">
         <f>C29/12</f>
@@ -12987,9 +12659,9 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B74" s="13">
         <f>-B73*$B$35</f>
@@ -13040,9 +12712,9 @@
         <v>-579705</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B75" s="11">
         <f>D45/12</f>
@@ -13093,9 +12765,9 @@
         <v>-45937.5</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B76" s="11">
         <f>D46/12</f>
@@ -13146,9 +12818,9 @@
         <v>-75000</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B77" s="11">
         <f>SUM(B72:B76)-B73</f>
@@ -13199,9 +12871,9 @@
         <v>-701642.5</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B78" s="22">
         <f>B73*$B$36</f>
@@ -13252,9 +12924,9 @@
         <v>787500</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B79" s="13">
         <f>B77+B78</f>
@@ -13305,9 +12977,9 @@
         <v>85857.5</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B80" s="13">
         <f t="shared" ref="B80:M80" si="17">B79*$I$50</f>
@@ -13358,9 +13030,9 @@
         <v>18030.075000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B81" s="13">
         <f>B79-B80</f>
@@ -13411,9 +13083,9 @@
         <v>67827.425000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B82" s="13">
         <f>M68+B81</f>
@@ -13464,9 +13136,9 @@
         <v>303450.7666666669</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B85" s="63" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C85" s="63"/>
       <c r="D85" s="63"/>
@@ -13480,48 +13152,48 @@
       <c r="L85" s="63"/>
       <c r="M85" s="63"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M86" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M86" s="30" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B87" s="11">
         <f>D27/12</f>
@@ -13572,9 +13244,9 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B88" s="8">
         <f>D43/12</f>
@@ -13625,9 +13297,9 @@
         <v>11025</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B89" s="13">
         <f>-B88*$B$35</f>
@@ -13678,9 +13350,9 @@
         <v>-608690.25</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B90" s="11">
         <f>D45/12</f>
@@ -13731,9 +13403,9 @@
         <v>-45937.5</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B91" s="11">
         <f>D46/12</f>
@@ -13784,9 +13456,9 @@
         <v>-75000</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B92" s="11">
         <f>SUM(B87:B91)-B88</f>
@@ -13837,9 +13509,9 @@
         <v>-730627.75</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B93" s="22">
         <f>B88*$B$36</f>
@@ -13890,9 +13562,9 @@
         <v>826875</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B94" s="13">
         <f>B92+B93</f>
@@ -13943,9 +13615,9 @@
         <v>96247.25</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B95" s="13">
         <f t="shared" ref="B95:M95" si="24">B94*$I$50</f>
@@ -13996,9 +13668,9 @@
         <v>20211.922500000001</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B96" s="13">
         <f>B94-B95</f>
@@ -14049,9 +13721,9 @@
         <v>76035.327499999999</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B97" s="13">
         <f>M82+B96</f>
@@ -14102,9 +13774,9 @@
         <v>1215874.6966666668</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B99" s="63" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C99" s="63"/>
       <c r="D99" s="63"/>
@@ -14118,48 +13790,48 @@
       <c r="L99" s="63"/>
       <c r="M99" s="63"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M100" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M100" s="30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B101" s="11">
         <f>F41/12</f>
@@ -14210,9 +13882,9 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B102" s="8">
         <f>E43/12</f>
@@ -14263,9 +13935,9 @@
         <v>11576.25</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B103" s="13">
         <f>-B102*$B$35</f>
@@ -14316,9 +13988,9 @@
         <v>-639124.76249999995</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B104" s="11">
         <f>E45/12</f>
@@ -14369,9 +14041,9 @@
         <v>-48234.375</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B105" s="11">
         <f>E46/12</f>
@@ -14422,9 +14094,9 @@
         <v>-75000</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B106" s="11">
         <f>SUM(B101:B105)-B102</f>
@@ -14475,9 +14147,9 @@
         <v>-763359.13749999995</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B107" s="22">
         <f>B102*$B$36</f>
@@ -14528,9 +14200,9 @@
         <v>868218.75</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B108" s="13">
         <f>B106+B107</f>
@@ -14581,9 +14253,9 @@
         <v>104859.61250000005</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B109" s="13">
         <f t="shared" ref="B109:M109" si="40">B108*$I$50</f>
@@ -14634,9 +14306,9 @@
         <v>22020.518625000008</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B110" s="13">
         <f>B108-B109</f>
@@ -14687,9 +14359,9 @@
         <v>82839.093875000035</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B111" s="13">
         <f>M97+B110</f>
@@ -14740,9 +14412,9 @@
         <v>2209943.8231666675</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B113" s="63" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C113" s="63"/>
       <c r="D113" s="63"/>
@@ -14756,48 +14428,48 @@
       <c r="L113" s="63"/>
       <c r="M113" s="63"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M114" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="M114" s="30" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B115" s="11">
         <f>F41/12</f>
@@ -14848,9 +14520,9 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B116" s="8">
         <f>F43/12</f>
@@ -14901,9 +14573,9 @@
         <v>12155.0625</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B117" s="13">
         <f>-B116*$B$35</f>
@@ -14954,9 +14626,9 @@
         <v>-671081.00062499999</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B118" s="11">
         <f>F45/12</f>
@@ -15007,9 +14679,9 @@
         <v>-50646.09375</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B119" s="11">
         <f>F46/12</f>
@@ -15060,9 +14732,9 @@
         <v>-75000</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B120" s="11">
         <f>SUM(B115:B119)-B116</f>
@@ -15113,9 +14785,9 @@
         <v>-797727.09437499999</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B121" s="22">
         <f>B116*$B$36</f>
@@ -15166,9 +14838,9 @@
         <v>911629.6875</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B122" s="13">
         <f>B120+B121</f>
@@ -15219,9 +14891,9 @@
         <v>113902.59312500001</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B123" s="13">
         <f t="shared" ref="B123:M123" si="65">B122*$I$50</f>
@@ -15272,9 +14944,9 @@
         <v>23919.544556250003</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B124" s="13">
         <f>B122-B123</f>
@@ -15325,9 +14997,9 @@
         <v>89983.048568750004</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="9" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B125" s="13">
         <f>M111+B124</f>
@@ -15378,9 +15050,9 @@
         <v>3289740.4059916651</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" ht="21" x14ac:dyDescent="0.5">
       <c r="A127" s="65" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B127" s="65"/>
       <c r="C127" s="65"/>
@@ -15392,62 +15064,62 @@
       <c r="I127" s="65"/>
       <c r="J127" s="65"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="12" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C128" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D128" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E128" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="G128" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H128" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="41" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B129" s="11">
         <v>15000</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="41" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B130" s="11">
         <v>45000</v>
       </c>
       <c r="C130" s="2">
         <f>Timeline!B3</f>
-        <v>44927</v>
+        <v>0</v>
       </c>
       <c r="D130" s="54">
         <f>B130/$B$133</f>
@@ -15455,10 +15127,10 @@
       </c>
       <c r="E130" s="57">
         <f>($B$135-C130)/365</f>
-        <v>4.9972602739726026</v>
+        <v>128.0849315068493</v>
       </c>
       <c r="F130" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G130" s="46">
         <f>D130*$D$135</f>
@@ -15470,22 +15142,22 @@
       </c>
       <c r="I130" s="52">
         <f>RATE(E130,,B130,-G130)</f>
-        <v>0.14876752355564796</v>
+        <v>5.4256714672461723E-3</v>
       </c>
       <c r="J130" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="41" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B131" s="11">
         <v>600000</v>
       </c>
       <c r="C131" s="2">
         <f>Timeline!B4</f>
-        <v>44927</v>
+        <v>0</v>
       </c>
       <c r="D131" s="54">
         <f t="shared" ref="D131:D132" si="77">B131/$B$133</f>
@@ -15493,10 +15165,10 @@
       </c>
       <c r="E131" s="57">
         <f t="shared" ref="E131:E132" si="78">($B$135-C131)/365</f>
-        <v>4.9972602739726026</v>
+        <v>128.0849315068493</v>
       </c>
       <c r="F131" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G131" s="46">
         <f t="shared" ref="G131:G132" si="79">D131*$D$135</f>
@@ -15508,22 +15180,22 @@
       </c>
       <c r="I131" s="52">
         <f t="shared" ref="I131:I132" si="80">RATE(E131,,B131,-G131)</f>
-        <v>0.14876752355564787</v>
+        <v>5.4256714672461098E-3</v>
       </c>
       <c r="J131" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="41" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B132" s="13">
         <v>1000000</v>
       </c>
       <c r="C132" s="2">
         <f>Timeline!B10</f>
-        <v>45292</v>
+        <v>0</v>
       </c>
       <c r="D132" s="54">
         <f t="shared" si="77"/>
@@ -15531,10 +15203,10 @@
       </c>
       <c r="E132" s="57">
         <f t="shared" si="78"/>
-        <v>3.9972602739726026</v>
+        <v>128.0849315068493</v>
       </c>
       <c r="F132" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G132" s="46">
         <f t="shared" si="79"/>
@@ -15546,40 +15218,40 @@
       </c>
       <c r="I132" s="52">
         <f t="shared" si="80"/>
-        <v>0.18932488878564829</v>
+        <v>5.4256714672460968E-3</v>
       </c>
       <c r="J132" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="50" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B133" s="51">
         <f>SUM(B130:B132)</f>
         <v>1645000</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D133" s="2">
         <f>C132</f>
-        <v>45292</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="44" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B135" s="56">
         <v>46751</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D135" s="55">
         <f>M125</f>
@@ -15624,223 +15296,223 @@
       <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="15.26953125" customWidth="1"/>
+    <col min="8" max="8" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="15.26953125" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3">
         <v>69000000</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F3" s="5">
         <v>0.91</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F7" s="7">
         <f>$F$2*$F$3</f>
         <v>62790000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F8" s="8">
         <f>F7*50%</f>
         <v>31395000</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F9" s="8">
         <f>F8*30%</f>
         <v>9418500</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F10" s="8"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F13" s="13">
         <v>46</v>
       </c>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F14" s="13">
         <v>19.989999999999998</v>
       </c>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="58" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F15" s="13">
         <v>42.95</v>
       </c>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F16" s="15">
         <v>119.99</v>
       </c>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F17" s="14">
         <f>AVERAGE(F13:F16)</f>
         <v>57.232500000000002</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F19" s="14">
         <f>F17-(40%*F17)</f>
         <v>34.339500000000001</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13">
         <v>48.21</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F22" s="11">
         <v>150000</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B24" s="61" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C24" s="61"/>
       <c r="D24" s="61"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B26" s="11">
         <v>-60000</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B27" s="11">
         <f>-SUM($I$58:$M$58)</f>
@@ -15854,26 +15526,26 @@
         <v>-12000</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B28" s="11">
         <v>-300</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B29" s="7">
         <v>50000</v>
@@ -15887,12 +15559,12 @@
         <v>132300</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B30" s="11">
         <f>-B29*$F$20</f>
@@ -15908,22 +15580,22 @@
       </c>
       <c r="F30" s="18"/>
       <c r="G30" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I30" s="19">
         <f>120000/F9</f>
         <v>1.2740882306099698E-2</v>
       </c>
       <c r="J30" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M30" s="5">
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B31" s="11">
         <f>(-500000/12)*11</f>
@@ -15938,12 +15610,12 @@
         <v>-551250</v>
       </c>
       <c r="G31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B32" s="20">
         <f>-$F$22*6</f>
@@ -15958,9 +15630,9 @@
         <v>-900000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B33" s="11">
         <f>SUM(B26:B32)-B29</f>
@@ -15975,67 +15647,67 @@
         <v>-7841433</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B35" s="13">
         <f>$F$20+7</f>
         <v>55.21</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B36" s="13">
         <v>75</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B38" s="61" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="61"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B40" s="11">
         <v>-60000</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B41" s="11">
         <f>-SUM($I$58:$M$58)</f>
@@ -16050,23 +15722,23 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B42" s="11">
         <v>-300</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B43" s="7">
         <v>50000</v>
@@ -16080,9 +15752,9 @@
         <v>132300</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B44" s="11">
         <f>-B43*$F$20</f>
@@ -16097,9 +15769,9 @@
         <v>-6378183</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B45" s="11">
         <f t="shared" ref="B45:D46" si="0">B31</f>
@@ -16114,9 +15786,9 @@
         <v>-551250</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B46" s="20">
         <f t="shared" si="0"/>
@@ -16131,9 +15803,9 @@
         <v>-900000</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B47" s="11">
         <f>SUM(B40:B46)-B43</f>
@@ -16148,9 +15820,9 @@
         <v>-7841433</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B48" s="22">
         <f>B43*$B$36</f>
@@ -16165,9 +15837,9 @@
         <v>9922500</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B49" s="27">
         <f>B48+B47</f>
@@ -16182,12 +15854,12 @@
         <v>2081067</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C50" s="23">
         <f t="shared" ref="C50:D50" si="2">C49*$E$50</f>
@@ -16201,12 +15873,12 @@
         <v>0.21</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B51" s="28">
         <f>SUM(B68:M68)</f>
@@ -16221,18 +15893,18 @@
         <v>1644042.93</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A54" s="67" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B54" s="67"/>
       <c r="C54" s="67"/>
       <c r="D54" s="67"/>
     </row>
-    <row r="55" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
       <c r="B55" s="63" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C55" s="63"/>
       <c r="D55" s="63"/>
@@ -16246,48 +15918,48 @@
       <c r="L55" s="63"/>
       <c r="M55" s="63"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M56" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M56" s="30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B57" s="22">
         <v>0</v>
@@ -16328,9 +16000,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B58" s="22">
         <v>0</v>
@@ -16380,9 +16052,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B59" s="11">
         <f>B42</f>
@@ -16422,9 +16094,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B60" s="22">
         <v>0</v>
@@ -16467,9 +16139,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B61" s="22">
         <v>0</v>
@@ -16513,9 +16185,9 @@
         <v>-552100</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B62" s="22">
         <v>0</v>
@@ -16565,9 +16237,9 @@
         <v>-41666.666666666664</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B63" s="11">
         <f>$B$46/12</f>
@@ -16618,9 +16290,9 @@
         <v>-75000</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B64" s="11">
         <f>SUM(B57:B63)</f>
@@ -16671,9 +16343,9 @@
         <v>-667766.66666666663</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B65" s="22">
         <v>0</v>
@@ -16717,9 +16389,9 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B66" s="11">
         <f>SUM(B64)</f>
@@ -16770,9 +16442,9 @@
         <v>82233.333333333372</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B67" s="22">
         <v>0</v>
@@ -16816,9 +16488,9 @@
         <v>17269.000000000007</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B68" s="11">
         <f>B66</f>
@@ -16869,51 +16541,51 @@
         <v>64964.333333333365</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B70" s="63" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C70" s="63"/>
       <c r="D70" s="63"/>
       <c r="E70" s="63"/>
       <c r="F70" s="1"/>
       <c r="I70" s="63" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J70" s="63"/>
       <c r="K70" s="63"/>
       <c r="L70" s="63"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B71" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L71" s="30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B72" s="11">
         <f>C41/4</f>
@@ -16932,7 +16604,7 @@
         <v>-3000</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I72" s="11">
         <f>D41/4</f>
@@ -16951,9 +16623,9 @@
         <v>-3000</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B73" s="8">
         <f>$C$43/4</f>
@@ -16972,7 +16644,7 @@
         <v>31500</v>
       </c>
       <c r="H73" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I73" s="8">
         <f>D43/4</f>
@@ -16991,9 +16663,9 @@
         <v>33075</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B74" s="29">
         <f>C44/4</f>
@@ -17012,7 +16684,7 @@
         <v>-1518615</v>
       </c>
       <c r="H74" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I74" s="29">
         <f>$D$44/4</f>
@@ -17031,9 +16703,9 @@
         <v>-1594545.75</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B75" s="11">
         <f>$C$45/4</f>
@@ -17052,7 +16724,7 @@
         <v>-131250</v>
       </c>
       <c r="H75" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I75" s="11">
         <f>$C$45/4</f>
@@ -17071,9 +16743,9 @@
         <v>-131250</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B76" s="11">
         <f>$C$46/4</f>
@@ -17092,7 +16764,7 @@
         <v>-225000</v>
       </c>
       <c r="H76" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I76" s="11">
         <f>$C$46/4</f>
@@ -17111,9 +16783,9 @@
         <v>-225000</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B77" s="11">
         <f>SUM(B72:B76)-B73</f>
@@ -17132,7 +16804,7 @@
         <v>-1877865</v>
       </c>
       <c r="H77" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I77" s="11">
         <f>SUM(I72:I76)-I73</f>
@@ -17151,9 +16823,9 @@
         <v>-1953795.75</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B78" s="23">
         <f>$C$48/4</f>
@@ -17172,7 +16844,7 @@
         <v>2362500</v>
       </c>
       <c r="H78" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I78" s="23">
         <f>$D$48/4</f>
@@ -17191,9 +16863,9 @@
         <v>2480625</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B79" s="13">
         <f>B77+B78</f>
@@ -17212,7 +16884,7 @@
         <v>484635</v>
       </c>
       <c r="H79" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="I79" s="13">
         <f>I77+I78</f>
@@ -17231,9 +16903,9 @@
         <v>526829.25</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B80" s="13">
         <f>B79*$E$50</f>
@@ -17252,7 +16924,7 @@
         <v>101773.34999999999</v>
       </c>
       <c r="H80" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="I80" s="13">
         <f>I79*$E$50</f>
@@ -17271,9 +16943,9 @@
         <v>110634.1425</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B81" s="13">
         <f>B79-B80</f>
@@ -17292,7 +16964,7 @@
         <v>382861.65</v>
       </c>
       <c r="H81" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I81" s="13">
         <f>I79-I80</f>
@@ -17311,31 +16983,31 @@
         <v>416195.10749999998</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F82" s="11"/>
     </row>
-    <row r="84" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:12" ht="26" x14ac:dyDescent="0.6">
       <c r="A84" s="66" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B84" s="66"/>
       <c r="C84" s="66"/>
       <c r="D84" s="66"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B85" s="45" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C85" s="45" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D85" s="45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B86" s="23">
         <f>SUM('Break-Even Analysis'!$B$65:$M$65)</f>
@@ -17350,9 +17022,9 @@
         <v>9922500</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B87" s="11">
         <f>SUM('Break-Even Analysis'!$B$64:$M$64)</f>
@@ -17367,9 +17039,9 @@
         <v>-8767533</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B88" s="13">
         <f>B87+B86</f>
@@ -17410,18 +17082,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17648,14 +17320,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB2B9B0-E6E5-4B72-933C-20D64028A100}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A91E8C8B-7276-4FF8-A05B-CDE38FB36D00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="fae77c4f-7f9b-4aff-ada3-fbcaff39b621"/>
@@ -17668,6 +17332,14 @@
     <ds:schemaRef ds:uri="48927070-ec2c-47ef-a538-d441225233ea"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB2B9B0-E6E5-4B72-933C-20D64028A100}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Pack n Pet Appendix Financials.xlsx
+++ b/Pack n Pet Appendix Financials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twodegrees1-my.sharepoint.com/personal/rahul_kotian_slalom_com/Documents/Documents/Personal/UTD/Fall - 23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{F3C844F2-B58D-4B37-BD6E-B056F96D0390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94D833CE-7206-4F40-A47E-0631BA1699BC}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{F3C844F2-B58D-4B37-BD6E-B056F96D0390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{531C4617-4976-4BC9-BFA1-A7D6196D8348}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{B484AC64-5681-4F67-AB9F-929646790744}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{B484AC64-5681-4F67-AB9F-929646790744}"/>
   </bookViews>
   <sheets>
     <sheet name="Assumptions" sheetId="11" r:id="rId1"/>
@@ -6088,7 +6088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573F281C-B0B3-4836-B32D-B9F4989F5450}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -8067,8 +8067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB45C2BA-102A-4F7F-AFB1-662704B3A6CD}">
   <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10835,7 +10835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E220BFF-4E41-4A1B-83C1-4E1D31535396}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -11110,7 +11110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9C0F0F-BF85-45FA-8C1B-71A5B58196D4}">
   <dimension ref="A1:M135"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -15292,7 +15292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECCCCCE-A7F5-4CF7-BE44-78E976C0B5F7}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
@@ -17088,15 +17088,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004215DE4761E03F4AAAA21620D1616052" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3c0d613504b952c4f44aebbc54a6219b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fae77c4f-7f9b-4aff-ada3-fbcaff39b621" xmlns:ns4="48927070-ec2c-47ef-a538-d441225233ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7f11c0d316e86a3c5e922c58c7c3a3be" ns3:_="" ns4:_="">
     <xsd:import namespace="fae77c4f-7f9b-4aff-ada3-fbcaff39b621"/>
@@ -17319,6 +17310,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A91E8C8B-7276-4FF8-A05B-CDE38FB36D00}">
   <ds:schemaRefs>
@@ -17337,14 +17337,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB2B9B0-E6E5-4B72-933C-20D64028A100}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EDEFDFC-5B08-4CAF-851C-1DD2CDB744D9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17361,4 +17353,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB2B9B0-E6E5-4B72-933C-20D64028A100}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>